--- a/dataset/Gojek/datasetgojek7.xlsx
+++ b/dataset/Gojek/datasetgojek7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\dataset\Gojek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5BB5-0503-42EC-B3B0-6CAEDCA9AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408CD639-18C3-4A82-9D7E-227AC8C843CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>created_at</t>
   </si>
@@ -62,123 +62,6 @@
     <t>capek bgt gaada gojek dsni tidak bisa gofood 🥺🥺🥺</t>
   </si>
   <si>
-    <t>matchchaaaaaa</t>
-  </si>
-  <si>
-    <t>Dari drama sama kang grab nd gojek, dr pagi kena tegor atasan, mulut pait, mual, lemes kaga udah-udah, siku kepento… https://t.co/ZtWr0ujvAK</t>
-  </si>
-  <si>
-    <t>ab0utHthings</t>
-  </si>
-  <si>
-    <t>@ChokoPublisher ibarat naik gojek ke gunung everest, alias gabakalan sampe😀</t>
-  </si>
-  <si>
-    <t>stroberinrokok</t>
-  </si>
-  <si>
-    <t>Selalu happy naik gojek https://t.co/XudGkj92ny</t>
-  </si>
-  <si>
-    <t>by_gtl</t>
-  </si>
-  <si>
-    <t>Dilema pulang dari Bogor
-1. Turun St. Karet lanjut gojek ke kos : muacettttnya nauzubillah 
-2. Lanjut St. Tanah A… https://t.co/rIzUrP4y3j</t>
-  </si>
-  <si>
-    <t>vst1gma</t>
-  </si>
-  <si>
-    <t>@duuccih xxi cafe bs gojek tidak si</t>
-  </si>
-  <si>
-    <t>jipyourbae</t>
-  </si>
-  <si>
-    <t>@sbmptnfess PERNAAHH sm mas" gojek, tetangga, ke sodara" jg, dll yg always gw temuin dan nyambungg. galupa sedekah jugaa</t>
-  </si>
-  <si>
-    <t>jopidc_</t>
-  </si>
-  <si>
-    <t>Arep o awakmu driver gojek pertama nek we nganu aku yo tak bales, simple wae.</t>
-  </si>
-  <si>
-    <t>ayangjiminnie</t>
-  </si>
-  <si>
-    <t>RT @fleurdelacour97: • temen rasa gojek https://t.co/MsyJyUJSGh</t>
-  </si>
-  <si>
-    <t>S209STI</t>
-  </si>
-  <si>
-    <t>“Sek penting atimu rasah nanggepi, nek iso didohi, ada suatu saat akdewe itu mengalah.” (Om Driver Gojek, 2022)
-https://t.co/Ymmip3Moiu</t>
-  </si>
-  <si>
-    <t>Fate_214</t>
-  </si>
-  <si>
-    <t>@gamoneveryday Di gojek</t>
-  </si>
-  <si>
-    <t>aditya_cholisi</t>
-  </si>
-  <si>
-    <t>@adisetyop Saya merasakan naik angkot dari Stasiun Sudimara ke Sarua, Tangerang Selatan. Angkot yg ke Pasar Ciputat… https://t.co/D1y1OHLHcP</t>
-  </si>
-  <si>
-    <t>softpipel</t>
-  </si>
-  <si>
-    <t>@cyrowfle @PT_Transjakarta oiya? yahh yauda deh gajadi kesitu wkwk, naik gojek juga jauh soalnya mahal</t>
-  </si>
-  <si>
-    <t>putupluto</t>
-  </si>
-  <si>
-    <t>Gueh tapi ke gocar/gojek https://t.co/TUNdgOFg5G</t>
-  </si>
-  <si>
-    <t>loverukssy</t>
-  </si>
-  <si>
-    <t>@peppermintcofy @convomf Anjrit jadi juga mesen gojek</t>
-  </si>
-  <si>
-    <t>cutiepayyez</t>
-  </si>
-  <si>
-    <t>dikira kalo sering make gojek bakal dapet banyak promo gojek taunya malah pelit voucher😃😃👎🏻👎🏻 @gojekindonesia</t>
-  </si>
-  <si>
-    <t>vprdit</t>
-  </si>
-  <si>
-    <t>@honeypatata @lackofcement Ooo ini yg dianter mas gojek ganteng</t>
-  </si>
-  <si>
-    <t>x0fsha</t>
-  </si>
-  <si>
-    <t>@untukj5 turun di st jatinegara aja lebih deket. trus naik gojek</t>
-  </si>
-  <si>
-    <t>sincerityscar</t>
-  </si>
-  <si>
-    <t>GW DIAJAK BOTI SM ABANG GOJEK SM ANAKNYA WOY</t>
-  </si>
-  <si>
-    <t>sadgurlpisan</t>
-  </si>
-  <si>
-    <t>@convomf nunggu gojek https://t.co/IFnKIlj6bD</t>
-  </si>
-  <si>
     <t>_Kaffah</t>
   </si>
   <si>
@@ -238,9 +121,6 @@
   </si>
   <si>
     <t>RT @florieliciouss: Bismillah,  LUMPIA SEMARANG sdh ready lagi yaa. Lengkap dengan saus kental yang manis, acar timun , cabe rawit serta lo…</t>
-  </si>
-  <si>
-    <t>prevecnt</t>
   </si>
   <si>
     <t>ocacola_</t>
@@ -492,9 +372,6 @@
 Di mulai dari tanggal 11 sampai 3… https://t.co/7btKpQs98S</t>
   </si>
   <si>
-    <t>hndsomeseokjin</t>
-  </si>
-  <si>
     <t>widyadrs</t>
   </si>
   <si>
@@ -507,9 +384,6 @@
     <t>@Kayana45986464 @bdngfess Mangga kalo mau pesen Gojek dari situ.</t>
   </si>
   <si>
-    <t>ramyeonjinn</t>
-  </si>
-  <si>
     <t>helmasyifasapu3</t>
   </si>
   <si>
@@ -520,9 +394,6 @@
   </si>
   <si>
     <t>gmn ya cara blgin orgtua jgn semaunya sendiri aja, nangis bgt td ditlp suru pesenin grab pas driver uda sampe diany… https://t.co/Lqgi4mjqeC</t>
-  </si>
-  <si>
-    <t>u_nameera</t>
   </si>
   <si>
     <t>geminorhs</t>
@@ -702,7 +573,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1000,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B7:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,267 +1000,96 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1368,10 +1099,10 @@
         <v>44764</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,10 +1113,10 @@
         <v>44764</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,10 +1127,10 @@
         <v>44764</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,10 +1141,10 @@
         <v>44764</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,10 +1155,10 @@
         <v>44764</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,10 +1169,10 @@
         <v>44764</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,10 +1183,10 @@
         <v>44764</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1466,10 +1197,10 @@
         <v>44764</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,10 +1211,10 @@
         <v>44764</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,937 +1225,887 @@
         <v>44764</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44764</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44764</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>44764</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>44764</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>44764</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>44764</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>44764</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>44764</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>44764</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>44764</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>44764</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>44764</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>44764</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>44764</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>44764</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>44764</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>44764</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>44764</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>44764</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>44764</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>44764</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>44764</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>44764</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>44764</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>44764</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>44764</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>44764</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>44764</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>44764</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>44764</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>44764</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>44764</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>44764</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>44764</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>44764</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>44764</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>44764</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>44764</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>44764</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>44764</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
         <v>44764</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
         <v>44764</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
         <v>44764</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>44764</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>44764</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>44764</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>44764</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>44764</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>44764</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>44764</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>44764</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>44764</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>44764</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>44764</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
         <v>44764</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
         <v>44764</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
         <v>44764</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2">
         <v>44764</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
         <v>44764</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
         <v>44764</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
         <v>44764</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2">
         <v>44764</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C98" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C99" t="s">
-        <v>193</v>
-      </c>
-      <c r="D99" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C100" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C101" t="s">
-        <v>191</v>
-      </c>
-      <c r="D101" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D6 D26:D97">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D6 C26:D97">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>